--- a/apitest/testfiles/test_cases.xlsx
+++ b/apitest/testfiles/test_cases.xlsx
@@ -210,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -232,8 +232,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,23 +346,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,47 +355,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,58 +375,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -391,181 +391,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,41 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,26 +612,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,8 +634,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,10 +695,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,7 +707,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,124 +716,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,14 +1209,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.22222222222222" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="28.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.3333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.3333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.3333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.2222222222222" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.22222222222222" style="2"/>
@@ -1411,10 +1411,19 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="28.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="30.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="21.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="10.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="8" max="8" width="34.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -1454,7 +1463,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1664,7 +1673,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/apitest/testfiles/test_cases.xlsx
+++ b/apitest/testfiles/test_cases.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444"/>
+    <workbookView windowWidth="23040" windowHeight="9444" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
     <sheet name="logout" sheetId="12" r:id="rId2"/>
     <sheet name="add_Groups" sheetId="13" r:id="rId3"/>
     <sheet name="Imageupload" sheetId="14" r:id="rId4"/>
+    <sheet name="ad" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>case_name</t>
   </si>
@@ -203,6 +204,21 @@
   </si>
   <si>
     <t>typeNULL</t>
+  </si>
+  <si>
+    <t>pramsname</t>
+  </si>
+  <si>
+    <t>testdata</t>
+  </si>
+  <si>
+    <t>ad_code</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>ad_error</t>
   </si>
 </sst>
 </file>
@@ -210,18 +226,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.6"/>
+      <color rgb="FF9876AA"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.6"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -232,6 +260,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -241,97 +382,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,32 +397,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,31 +419,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,145 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,17 +629,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,24 +664,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,22 +688,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,10 +723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,139 +735,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -848,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -866,7 +896,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1208,193 +1238,193 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.22222222222222" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.3333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.22222222222222" style="2"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.7777777777778" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.22222222222222" style="2"/>
+    <col min="1" max="1" width="28.7777777777778" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.3333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.3333333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.2222222222222" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.22222222222222" style="4"/>
+    <col min="7" max="7" width="11" style="4" customWidth="1"/>
+    <col min="8" max="8" width="29.7777777777778" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.22222222222222" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1426,28 +1456,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1463,202 +1493,202 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="22.8888888888889" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.2222222222222" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.77777777777778" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.4444444444444" style="9" customWidth="1"/>
-    <col min="5" max="6" width="10.5555555555556" style="7" customWidth="1"/>
-    <col min="7" max="7" width="59.7777777777778" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.55555555555556" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5555555555556" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.44444444444444" style="7" customWidth="1"/>
-    <col min="13" max="13" width="13.2222222222222" style="7" customWidth="1"/>
-    <col min="14" max="14" width="19.5555555555556" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="8.66666666666667" style="7"/>
+    <col min="1" max="1" width="22.8888888888889" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.77777777777778" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" style="11" customWidth="1"/>
+    <col min="5" max="6" width="10.5555555555556" style="9" customWidth="1"/>
+    <col min="7" max="7" width="59.7777777777778" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.55555555555556" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.5555555555556" style="9" customWidth="1"/>
+    <col min="11" max="11" width="39" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8.44444444444444" style="9" customWidth="1"/>
+    <col min="13" max="13" width="13.2222222222222" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.5555555555556" style="9" customWidth="1"/>
+    <col min="15" max="16384" width="8.66666666666667" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:14">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="8:8">
-      <c r="H5" s="9"/>
+      <c r="H5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,129 +1708,174 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.4444444444444" style="3" customWidth="1"/>
-    <col min="2" max="2" width="21.5555555555556" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.3333333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.1111111111111" style="3" customWidth="1"/>
-    <col min="6" max="7" width="8.88888888888889" style="3"/>
-    <col min="8" max="8" width="40" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="28.4444444444444" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.5555555555556" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.3333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.5555555555556" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.1111111111111" style="5" customWidth="1"/>
+    <col min="6" max="7" width="8.88888888888889" style="5"/>
+    <col min="8" max="8" width="40" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="4" customFormat="1" spans="1:8">
+      <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:8">
+      <c r="A4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:2">
-      <c r="B5" s="5"/>
+    <row r="5" s="4" customFormat="1" spans="2:2">
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="32.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="35.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.2" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="16.2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/apitest/testfiles/test_cases.xlsx
+++ b/apitest/testfiles/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9444" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9444" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="add_Groups" sheetId="13" r:id="rId3"/>
     <sheet name="Imageupload" sheetId="14" r:id="rId4"/>
     <sheet name="ad" sheetId="15" r:id="rId5"/>
+    <sheet name="ad2" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t>case_name</t>
   </si>
@@ -219,6 +220,187 @@
   </si>
   <si>
     <t>ad_error</t>
+  </si>
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>/specialAd</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pramsname"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ad_code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"testdata"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"pramsname"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ad_error"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"testdata"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.6"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -226,12 +408,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +423,19 @@
     </font>
     <font>
       <sz val="12.6"/>
-      <color rgb="FF9876AA"/>
+      <color rgb="FF6A8759"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12.6"/>
-      <color rgb="FF6A8759"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.6"/>
+      <color rgb="FF9876AA"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -260,6 +448,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -275,48 +540,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,7 +555,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,16 +569,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,43 +585,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12.6"/>
+      <color rgb="FFCC7832"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -413,12 +607,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -431,25 +661,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,25 +733,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,109 +781,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,20 +814,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +834,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +862,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -673,32 +888,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -735,141 +929,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -878,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -896,7 +1096,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1244,187 +1444,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.22222222222222" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.7777777777778" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.1111111111111" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.3333333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.3333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.2222222222222" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.22222222222222" style="4"/>
-    <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.7777777777778" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.22222222222222" style="4"/>
+    <col min="1" max="1" width="28.7777777777778" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.1111111111111" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.3333333333333" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.3333333333333" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.2222222222222" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.22222222222222" style="8"/>
+    <col min="7" max="7" width="11" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.7777777777778" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.22222222222222" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1456,28 +1656,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1498,197 +1698,197 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="22.8888888888889" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.2222222222222" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.77777777777778" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.4444444444444" style="11" customWidth="1"/>
-    <col min="5" max="6" width="10.5555555555556" style="9" customWidth="1"/>
-    <col min="7" max="7" width="59.7777777777778" style="9" customWidth="1"/>
-    <col min="8" max="8" width="10" style="9" customWidth="1"/>
-    <col min="9" max="9" width="9.55555555555556" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.5555555555556" style="9" customWidth="1"/>
-    <col min="11" max="11" width="39" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.44444444444444" style="9" customWidth="1"/>
-    <col min="13" max="13" width="13.2222222222222" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19.5555555555556" style="9" customWidth="1"/>
-    <col min="15" max="16384" width="8.66666666666667" style="9"/>
+    <col min="1" max="1" width="22.8888888888889" style="13" customWidth="1"/>
+    <col min="2" max="2" width="15.2222222222222" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8.77777777777778" style="14" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" style="15" customWidth="1"/>
+    <col min="5" max="6" width="10.5555555555556" style="13" customWidth="1"/>
+    <col min="7" max="7" width="59.7777777777778" style="13" customWidth="1"/>
+    <col min="8" max="8" width="10" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.55555555555556" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5555555555556" style="13" customWidth="1"/>
+    <col min="11" max="11" width="39" style="13" customWidth="1"/>
+    <col min="12" max="12" width="8.44444444444444" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13.2222222222222" style="13" customWidth="1"/>
+    <col min="14" max="14" width="19.5555555555556" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="8.66666666666667" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:14">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:14">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="8:8">
-      <c r="H5" s="11"/>
+      <c r="H5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1708,126 +1908,126 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.4444444444444" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.5555555555556" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.3333333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.1111111111111" style="5" customWidth="1"/>
-    <col min="6" max="7" width="8.88888888888889" style="5"/>
-    <col min="8" max="8" width="40" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="5"/>
+    <col min="1" max="1" width="28.4444444444444" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.5555555555556" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.3333333333333" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.5555555555556" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.1111111111111" style="9" customWidth="1"/>
+    <col min="6" max="7" width="8.88888888888889" style="9"/>
+    <col min="8" max="8" width="40" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.88888888888889" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:8">
+      <c r="A2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:8">
+      <c r="A3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:8">
+      <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="2:2">
-      <c r="B5" s="7"/>
+    <row r="5" s="8" customFormat="1" spans="2:2">
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,8 +2040,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1851,15 +2051,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.2" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" ht="16.2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
@@ -1872,6 +2072,89 @@
       </c>
       <c r="B3" t="s">
         <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="29.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="58.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="26.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" ht="16.2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="16.2" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/apitest/testfiles/test_cases.xlsx
+++ b/apitest/testfiles/test_cases.xlsx
@@ -2086,7 +2086,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
